--- a/pickles/dbcopy.xlsx
+++ b/pickles/dbcopy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plr03474\NoOneDrive\Python\ArturWebApp\pickles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C679C1-0614-440C-869F-27FEC9CC3DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984359D1-6529-4F75-B753-1BBCAF48D6FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,15 @@
     <sheet name="project" sheetId="3" r:id="rId3"/>
     <sheet name="alembic_version" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">task!$A$1:$Q$118</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="173">
   <si>
     <t>id</t>
   </si>
@@ -118,78 +121,63 @@
     <t>Set venv for Georgios</t>
   </si>
   <si>
-    <t>Set venv for Anand</t>
+    <t>Tax NL - till 31 Apr</t>
+  </si>
+  <si>
+    <t>Apply to addidas</t>
+  </si>
+  <si>
+    <t>Start exercise. Stop cancer and heart attack.</t>
+  </si>
+  <si>
+    <t>Read book</t>
+  </si>
+  <si>
+    <t>Parcels for cooper cleaning</t>
+  </si>
+  <si>
+    <t>Add Menu filter by strategy, Projects, timeline (button groups)</t>
+  </si>
+  <si>
+    <t>Double tracking number issue</t>
+  </si>
+  <si>
+    <t>Summary graph</t>
+  </si>
+  <si>
+    <t>This Week</t>
+  </si>
+  <si>
+    <t>Change Frequency - Continous into every X days (to cover running every 2 days)</t>
+  </si>
+  <si>
+    <t>Deploy to python everywhere</t>
+  </si>
+  <si>
+    <t>Add alconsumption</t>
+  </si>
+  <si>
+    <t>Buy binnenband 26 1.75</t>
+  </si>
+  <si>
+    <t>Rapair bakfiest</t>
+  </si>
+  <si>
+    <t>Later Today</t>
+  </si>
+  <si>
+    <t>Recheck</t>
+  </si>
+  <si>
+    <t>Git learn with branches and restoring</t>
+  </si>
+  <si>
+    <t>Git book from Git-internet</t>
   </si>
   <si>
     <t>This Month</t>
   </si>
   <si>
-    <t>Make overview of what was delivered by Anand and put in folders</t>
-  </si>
-  <si>
-    <t>Aggregate and clean data</t>
-  </si>
-  <si>
-    <t>Tax NL - till 31 Apr</t>
-  </si>
-  <si>
-    <t>This Week</t>
-  </si>
-  <si>
-    <t>Apply to addidas</t>
-  </si>
-  <si>
-    <t>Start exercise. Stop cancer and heart attack.</t>
-  </si>
-  <si>
-    <t>Read book</t>
-  </si>
-  <si>
-    <t>Parcels for cooper cleaning</t>
-  </si>
-  <si>
-    <t>Add Menu filter by strategy, Projects, timeline (button groups)</t>
-  </si>
-  <si>
-    <t>Double tracking number issue</t>
-  </si>
-  <si>
-    <t>Summary graph</t>
-  </si>
-  <si>
-    <t>Change Frequency - Continous into every X days (to cover running every 2 days)</t>
-  </si>
-  <si>
-    <t>Deploy to python everywhere</t>
-  </si>
-  <si>
-    <t>Add alconsumption</t>
-  </si>
-  <si>
-    <t>Buy binnenband 26 1.75</t>
-  </si>
-  <si>
-    <t>Rapair bakfiest</t>
-  </si>
-  <si>
-    <t>iPlan Feature: plan hrs in month and let script propose when including postponements</t>
-  </si>
-  <si>
-    <t>Later Today</t>
-  </si>
-  <si>
-    <t>Recheck</t>
-  </si>
-  <si>
-    <t>Git learn with branches and restoring</t>
-  </si>
-  <si>
-    <t>Restore data from MacBook</t>
-  </si>
-  <si>
-    <t>Git book from Git-internet</t>
-  </si>
-  <si>
     <t>Add to task name nb od days since adding and badge colors (red very delayed)</t>
   </si>
   <si>
@@ -205,7 +193,7 @@
     <t>Use time_due. Make warning for 3 days before due. 1 day red.</t>
   </si>
   <si>
-    <t>Llamasoft training</t>
+    <t>Training - Introduction to Supply Chain Guru X</t>
   </si>
   <si>
     <t>Short version for collapse task (oneliner) and tooltip for Whole title</t>
@@ -217,9 +205,6 @@
     <t>Add button import export excel</t>
   </si>
   <si>
-    <t>Become freelancer at e.g. guru.com</t>
-  </si>
-  <si>
     <t>Add show_timeline to strategy and project</t>
   </si>
   <si>
@@ -262,28 +247,148 @@
     <t>For new tasks - Add due date for all automatically - set as end end of category</t>
   </si>
   <si>
-    <t>Cut shrubwrry</t>
+    <t>Cut shrubbery</t>
   </si>
   <si>
     <t xml:space="preserve">Clean fish tank </t>
   </si>
   <si>
-    <t>[CO] API fedex</t>
+    <t>API fedex</t>
   </si>
   <si>
     <t>Actions with duedate today, should automatically appear in later today</t>
   </si>
   <si>
-    <t>first project task</t>
-  </si>
-  <si>
-    <t>Not a project</t>
-  </si>
-  <si>
-    <t>Run 1km</t>
-  </si>
-  <si>
-    <t>Task project 2</t>
+    <t>Watch and decide Web Development In 2020</t>
+  </si>
+  <si>
+    <t>BUG - due date not refreshing next day. Add variable</t>
+  </si>
+  <si>
+    <t>Bug task.project.id</t>
+  </si>
+  <si>
+    <t>Clean new data and make sure it's correct</t>
+  </si>
+  <si>
+    <t>Interface to Fedex: Address in, rate out in tabular form</t>
+  </si>
+  <si>
+    <t>Button Hide all/show all</t>
+  </si>
+  <si>
+    <t>Install Llamasoft on Big Machine</t>
+  </si>
+  <si>
+    <t>Clean your desk - undust</t>
+  </si>
+  <si>
+    <t>Parcel reports</t>
+  </si>
+  <si>
+    <t>Bug on order - do not work sometimes on first click</t>
+  </si>
+  <si>
+    <t>Recalculate chargeable weight</t>
+  </si>
+  <si>
+    <t>Calculate cost with rates from Georgios</t>
+  </si>
+  <si>
+    <t>Fedex API production account</t>
+  </si>
+  <si>
+    <t>Make menu buttons smaller</t>
+  </si>
+  <si>
+    <t>Make intro of yourself, prepare attention points, read mails</t>
+  </si>
+  <si>
+    <t>'drop if freight cost &lt;- 0'</t>
+  </si>
+  <si>
+    <t>Small form (close to top buttons) to make a task</t>
+  </si>
+  <si>
+    <t>Select few tasks to edit (change timeline, due data)</t>
+  </si>
+  <si>
+    <t>Prepare plan for new month</t>
+  </si>
+  <si>
+    <t>Read book - De Tweeling van Summerbourne</t>
+  </si>
+  <si>
+    <t>Training - Getting Started with Demand Guru</t>
+  </si>
+  <si>
+    <t>Training - Data Blending with Data Guru</t>
+  </si>
+  <si>
+    <t>Training - Getting Started with App Studio</t>
+  </si>
+  <si>
+    <t>Clean todos</t>
+  </si>
+  <si>
+    <t>Rethink the timeline layout - user editable tabs - e.g. for projects, timeduewise</t>
+  </si>
+  <si>
+    <t>Send data to Georgios - samples</t>
+  </si>
+  <si>
+    <t>Sleep in night outside house</t>
+  </si>
+  <si>
+    <t>Display for each strtegy/project nb of overdues</t>
+  </si>
+  <si>
+    <t>Last check on droped duplicates - todo in script</t>
+  </si>
+  <si>
+    <t>Copy task functionality</t>
+  </si>
+  <si>
+    <t>Calculate missing dims yourself - 139 for fedex</t>
+  </si>
+  <si>
+    <t>Hellevuur</t>
+  </si>
+  <si>
+    <t>Nice form (small) for task edit form</t>
+  </si>
+  <si>
+    <t>Add zones to shipments</t>
+  </si>
+  <si>
+    <t>Make a rate database</t>
+  </si>
+  <si>
+    <t>Matt Get data</t>
+  </si>
+  <si>
+    <t>Matt run script</t>
+  </si>
+  <si>
+    <t>Prepare a list of deliverables</t>
+  </si>
+  <si>
+    <t>Setup ND NAM project</t>
+  </si>
+  <si>
+    <t>Combine files</t>
+  </si>
+  <si>
+    <t>Cooper rates</t>
+  </si>
+  <si>
+    <t>Check how python scripts can be used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on title, duration and small edit window appears for only this item. That will be more convinient than edit. </t>
+  </si>
+  <si>
+    <t>Add 'safe me button' - postpone each ovedue task with +1d to now()</t>
   </si>
   <si>
     <t>symbol</t>
@@ -337,13 +442,13 @@
     <t>DARKSEAGREEN</t>
   </si>
   <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>OTH</t>
-  </si>
-  <si>
-    <t>#b1b4b5</t>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>WRK</t>
+  </si>
+  <si>
+    <t>#fcffc4</t>
   </si>
   <si>
     <t>Untracked</t>
@@ -358,15 +463,6 @@
     <t>#ccf1ff</t>
   </si>
   <si>
-    <t>India ND</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>#97e8a0</t>
-  </si>
-  <si>
     <t>Ideas</t>
   </si>
   <si>
@@ -376,6 +472,15 @@
     <t>white</t>
   </si>
   <si>
+    <t>Create, read, think</t>
+  </si>
+  <si>
+    <t>CRT</t>
+  </si>
+  <si>
+    <t>lightblue</t>
+  </si>
+  <si>
     <t>Not Project</t>
   </si>
   <si>
@@ -388,7 +493,7 @@
     <t>Project</t>
   </si>
   <si>
-    <t>#f1f1f1</t>
+    <t>White</t>
   </si>
   <si>
     <t>Cooper Parcels</t>
@@ -397,13 +502,49 @@
     <t>COP</t>
   </si>
   <si>
-    <t>Coral</t>
+    <t>#ffdbc4</t>
+  </si>
+  <si>
+    <t>Running 5KM</t>
+  </si>
+  <si>
+    <t>5KM</t>
+  </si>
+  <si>
+    <t>Running 5km distance</t>
+  </si>
+  <si>
+    <t>AWA iPlan</t>
+  </si>
+  <si>
+    <t>AWA</t>
+  </si>
+  <si>
+    <t>NAM ND</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>Erni</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>Ideas to be realized with Ernest</t>
+  </si>
+  <si>
+    <t>Idea</t>
+  </si>
+  <si>
+    <t>cornsilk</t>
   </si>
   <si>
     <t>version_num</t>
   </si>
   <si>
-    <t>91b51e43776b</t>
+    <t>2e0cdda79923</t>
   </si>
 </sst>
 </file>
@@ -770,13 +911,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -895,7 +1052,7 @@
         <v>43929.894150115739</v>
       </c>
       <c r="I3" s="2">
-        <v>43948</v>
+        <v>43962.958333333336</v>
       </c>
       <c r="J3" t="s">
         <v>23</v>
@@ -907,7 +1064,7 @@
         <v>25569</v>
       </c>
       <c r="N3">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
@@ -948,7 +1105,7 @@
         <v>25569</v>
       </c>
       <c r="N4">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="O4" t="b">
         <v>0</v>
@@ -973,11 +1130,14 @@
       <c r="E5" t="s">
         <v>22</v>
       </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
       <c r="G5" s="2">
         <v>43930.396010185177</v>
       </c>
       <c r="I5" s="2">
-        <v>43952</v>
+        <v>43982</v>
       </c>
       <c r="J5" t="s">
         <v>25</v>
@@ -989,7 +1149,7 @@
         <v>25569</v>
       </c>
       <c r="N5">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="O5" t="b">
         <v>0</v>
@@ -1135,7 +1295,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -1150,28 +1310,31 @@
         <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>43935.285558819443</v>
+        <v>43935.296847662037</v>
+      </c>
+      <c r="H9" s="2">
+        <v>43948.623876292659</v>
       </c>
       <c r="I9" s="2">
-        <v>43961</v>
+        <v>43948.583333333343</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="K9" s="2">
-        <v>25569.020833333328</v>
+        <v>25569.041666666672</v>
       </c>
       <c r="L9" s="2">
-        <v>25569</v>
+        <v>25569.092587489089</v>
       </c>
       <c r="N9">
-        <v>416</v>
+        <v>107</v>
       </c>
       <c r="O9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -1179,10 +1342,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -1191,28 +1354,31 @@
         <v>22</v>
       </c>
       <c r="G10" s="2">
-        <v>43935.286250231482</v>
+        <v>43935.297219560183</v>
+      </c>
+      <c r="H10" s="2">
+        <v>43935.867519490741</v>
       </c>
       <c r="I10" s="2">
-        <v>43961</v>
+        <v>43935.833333333343</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="K10" s="2">
-        <v>25569.041666666672</v>
+        <v>25569</v>
       </c>
       <c r="L10" s="2">
         <v>25569</v>
       </c>
       <c r="N10">
-        <v>417</v>
+        <v>206</v>
       </c>
       <c r="O10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -1220,10 +1386,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -1232,28 +1398,31 @@
         <v>22</v>
       </c>
       <c r="G11" s="2">
-        <v>43935.289253888892</v>
+        <v>43935.298676192127</v>
+      </c>
+      <c r="H11" s="2">
+        <v>43941.37791328704</v>
       </c>
       <c r="I11" s="2">
-        <v>43961</v>
+        <v>43938.833333333343</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="K11" s="2">
-        <v>25569.083333333328</v>
+        <v>25569</v>
       </c>
       <c r="L11" s="2">
         <v>25569</v>
       </c>
       <c r="N11">
-        <v>418</v>
+        <v>5</v>
       </c>
       <c r="O11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -1261,43 +1430,43 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G12" s="2">
-        <v>43935.296847662037</v>
+        <v>43935.426763449083</v>
+      </c>
+      <c r="H12" s="2">
+        <v>43936.603081446759</v>
       </c>
       <c r="I12" s="2">
-        <v>43948.583333333343</v>
+        <v>43936.832638888889</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="K12" s="2">
-        <v>25569</v>
+        <v>25569.020833333328</v>
       </c>
       <c r="L12" s="2">
-        <v>25569</v>
+        <v>25569.049212557871</v>
       </c>
       <c r="N12">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -1305,10 +1474,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -1317,31 +1486,31 @@
         <v>22</v>
       </c>
       <c r="G13" s="2">
-        <v>43935.297219560183</v>
+        <v>43935.683559131947</v>
       </c>
       <c r="H13" s="2">
-        <v>43935.867519490741</v>
+        <v>43938.746700312498</v>
       </c>
       <c r="I13" s="2">
-        <v>43935.833333333343</v>
+        <v>43938</v>
       </c>
       <c r="J13" t="s">
         <v>20</v>
       </c>
       <c r="K13" s="2">
-        <v>25569</v>
+        <v>25569.0625</v>
       </c>
       <c r="L13" s="2">
-        <v>25569</v>
+        <v>25569.070608587961</v>
       </c>
       <c r="N13">
-        <v>206</v>
+        <v>3</v>
       </c>
       <c r="O13" t="b">
         <v>1</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -1349,10 +1518,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
@@ -1361,31 +1530,31 @@
         <v>22</v>
       </c>
       <c r="G14" s="2">
-        <v>43935.298676192127</v>
+        <v>43936.367193495367</v>
       </c>
       <c r="H14" s="2">
-        <v>43941.37791328704</v>
+        <v>43944.557266898148</v>
       </c>
       <c r="I14" s="2">
-        <v>43938.833333333343</v>
+        <v>43944</v>
       </c>
       <c r="J14" t="s">
         <v>20</v>
       </c>
       <c r="K14" s="2">
-        <v>25569</v>
+        <v>25569.013888888891</v>
       </c>
       <c r="L14" s="2">
-        <v>25569</v>
+        <v>25569.041314074071</v>
       </c>
       <c r="N14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O14" t="b">
         <v>1</v>
       </c>
       <c r="P14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -1393,10 +1562,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -1405,13 +1574,13 @@
         <v>19</v>
       </c>
       <c r="G15" s="2">
-        <v>43935.426763449083</v>
+        <v>43936.519748287043</v>
       </c>
       <c r="H15" s="2">
-        <v>43936.603081446759</v>
+        <v>43937.469114629632</v>
       </c>
       <c r="I15" s="2">
-        <v>43936.832638888889</v>
+        <v>43937.406736111108</v>
       </c>
       <c r="J15" t="s">
         <v>20</v>
@@ -1420,10 +1589,10 @@
         <v>25569.020833333328</v>
       </c>
       <c r="L15" s="2">
-        <v>25569.049212557871</v>
+        <v>25569.014391875</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="b">
         <v>1</v>
@@ -1437,43 +1606,43 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G16" s="2">
-        <v>43935.683559131947</v>
+        <v>43937.385781481476</v>
       </c>
       <c r="H16" s="2">
-        <v>43938.746700312498</v>
+        <v>43938.576848715267</v>
       </c>
       <c r="I16" s="2">
-        <v>43938</v>
+        <v>43938.406736111108</v>
       </c>
       <c r="J16" t="s">
         <v>20</v>
       </c>
       <c r="K16" s="2">
-        <v>25569.0625</v>
+        <v>25569.020833333328</v>
       </c>
       <c r="L16" s="2">
-        <v>25569.070608587961</v>
+        <v>25569.02467081018</v>
       </c>
       <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16">
         <v>3</v>
-      </c>
-      <c r="O16" t="b">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>6</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -1481,10 +1650,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -1493,22 +1662,22 @@
         <v>22</v>
       </c>
       <c r="G17" s="2">
-        <v>43936.367193495367</v>
+        <v>43938.420271111107</v>
       </c>
       <c r="H17" s="2">
-        <v>43944.557266898148</v>
+        <v>43938.746680567128</v>
       </c>
       <c r="I17" s="2">
-        <v>43944</v>
+        <v>43938</v>
       </c>
       <c r="J17" t="s">
         <v>20</v>
       </c>
       <c r="K17" s="2">
-        <v>25569.013888888891</v>
+        <v>25569.041666666672</v>
       </c>
       <c r="L17" s="2">
-        <v>25569.041314074071</v>
+        <v>25569.06957163195</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1517,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -1525,54 +1694,54 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>43938.430392835653</v>
+      </c>
+      <c r="I18" s="2">
+        <v>43962.958333333336</v>
+      </c>
+      <c r="J18" t="s">
         <v>39</v>
       </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="2">
-        <v>43936.519748287043</v>
-      </c>
-      <c r="H18" s="2">
-        <v>43937.469114629632</v>
-      </c>
-      <c r="I18" s="2">
-        <v>43937.406736111108</v>
-      </c>
-      <c r="J18" t="s">
-        <v>20</v>
-      </c>
       <c r="K18" s="2">
-        <v>25569.020833333328</v>
+        <v>25569.083333333328</v>
       </c>
       <c r="L18" s="2">
-        <v>25569.014391875</v>
+        <v>25569</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="O18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -1581,13 +1750,13 @@
         <v>19</v>
       </c>
       <c r="G19" s="2">
-        <v>43937.385781481476</v>
+        <v>43938.493515520837</v>
       </c>
       <c r="H19" s="2">
-        <v>43938.576848715267</v>
+        <v>43940.635662303241</v>
       </c>
       <c r="I19" s="2">
-        <v>43938.406736111108</v>
+        <v>43940</v>
       </c>
       <c r="J19" t="s">
         <v>20</v>
@@ -1596,7 +1765,7 @@
         <v>25569.020833333328</v>
       </c>
       <c r="L19" s="2">
-        <v>25569.02467081018</v>
+        <v>25569.039258749999</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1613,43 +1782,43 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
       <c r="G20" s="2">
-        <v>43938.420271111107</v>
+        <v>43940.55232909722</v>
       </c>
       <c r="H20" s="2">
-        <v>43938.746680567128</v>
+        <v>43941.591809479163</v>
       </c>
       <c r="I20" s="2">
-        <v>43938</v>
+        <v>43941.542071759257</v>
       </c>
       <c r="J20" t="s">
         <v>20</v>
       </c>
       <c r="K20" s="2">
-        <v>25569.041666666672</v>
+        <v>25569.020833333328</v>
       </c>
       <c r="L20" s="2">
-        <v>25569.06957163195</v>
+        <v>25569.024736805561</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="O20" t="b">
         <v>1</v>
       </c>
       <c r="P20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -1657,10 +1826,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -1668,29 +1837,29 @@
       <c r="E21" t="s">
         <v>22</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
       <c r="G21" s="2">
-        <v>43938.430392835653</v>
+        <v>43941.295729583333</v>
+      </c>
+      <c r="H21" s="2">
+        <v>43945.629978715267</v>
       </c>
       <c r="I21" s="2">
-        <v>43954</v>
+        <v>43945</v>
       </c>
       <c r="J21" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="K21" s="2">
-        <v>25569.083333333328</v>
+        <v>25569.041666666672</v>
       </c>
       <c r="L21" s="2">
-        <v>25569</v>
+        <v>25569.020303530091</v>
       </c>
       <c r="N21">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="O21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
         <v>1</v>
@@ -1701,98 +1870,98 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>43941.306077152767</v>
+      </c>
+      <c r="I22" s="2">
+        <v>43962.958333333336</v>
+      </c>
+      <c r="J22" t="s">
         <v>39</v>
       </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="2">
-        <v>43938.493515520837</v>
-      </c>
-      <c r="H22" s="2">
-        <v>43940.635662303241</v>
-      </c>
-      <c r="I22" s="2">
-        <v>43940</v>
-      </c>
-      <c r="J22" t="s">
-        <v>20</v>
-      </c>
       <c r="K22" s="2">
-        <v>25569.020833333328</v>
+        <v>25569</v>
       </c>
       <c r="L22" s="2">
-        <v>25569.039258749999</v>
+        <v>25569</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="O22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>43941.307375729157</v>
+      </c>
+      <c r="I23" s="2">
+        <v>43962.958333333336</v>
+      </c>
+      <c r="J23" t="s">
         <v>39</v>
       </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="2">
-        <v>43940.55232909722</v>
-      </c>
-      <c r="H23" s="2">
-        <v>43941.591809479163</v>
-      </c>
-      <c r="I23" s="2">
-        <v>43941.542071759257</v>
-      </c>
-      <c r="J23" t="s">
-        <v>20</v>
-      </c>
       <c r="K23" s="2">
-        <v>25569.020833333328</v>
+        <v>25569</v>
       </c>
       <c r="L23" s="2">
-        <v>25569.024736805561</v>
+        <v>25569</v>
       </c>
       <c r="N23">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="O23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
@@ -1801,31 +1970,31 @@
         <v>22</v>
       </c>
       <c r="G24" s="2">
-        <v>43941.295729583333</v>
+        <v>43941.456113391207</v>
       </c>
       <c r="H24" s="2">
-        <v>43945.629978715267</v>
+        <v>43941.738216620368</v>
       </c>
       <c r="I24" s="2">
-        <v>43945</v>
+        <v>43941.666666666657</v>
       </c>
       <c r="J24" t="s">
         <v>20</v>
       </c>
       <c r="K24" s="2">
-        <v>25569.041666666672</v>
+        <v>25569</v>
       </c>
       <c r="L24" s="2">
-        <v>25569.020303530091</v>
+        <v>25569</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="O24" t="b">
         <v>1</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q24">
         <v>1</v>
@@ -1833,10 +2002,10 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -1844,32 +2013,32 @@
       <c r="E25" t="s">
         <v>22</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
       <c r="G25" s="2">
-        <v>43941.306077152767</v>
+        <v>43941.456768113429</v>
+      </c>
+      <c r="H25" s="2">
+        <v>43941.738247604168</v>
       </c>
       <c r="I25" s="2">
-        <v>43948</v>
+        <v>43941.666666666657</v>
       </c>
       <c r="J25" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="K25" s="2">
-        <v>25569</v>
+        <v>25569.083333333328</v>
       </c>
       <c r="L25" s="2">
         <v>25569</v>
       </c>
       <c r="N25">
-        <v>211</v>
+        <v>107</v>
       </c>
       <c r="O25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -1877,40 +2046,43 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G26" s="2">
-        <v>43941.307375729157</v>
+        <v>43941.50847630787</v>
+      </c>
+      <c r="H26" s="2">
+        <v>43942.758076412043</v>
       </c>
       <c r="I26" s="2">
-        <v>43949</v>
+        <v>43942.542071759257</v>
       </c>
       <c r="J26" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K26" s="2">
-        <v>25569</v>
+        <v>25569.020833333328</v>
       </c>
       <c r="L26" s="2">
         <v>25569</v>
       </c>
       <c r="N26">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="O26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -1918,10 +2090,10 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -1930,13 +2102,13 @@
         <v>22</v>
       </c>
       <c r="G27" s="2">
-        <v>43941.456113391207</v>
+        <v>43941.539647291669</v>
       </c>
       <c r="H27" s="2">
-        <v>43941.738216620368</v>
+        <v>43941.623180578703</v>
       </c>
       <c r="I27" s="2">
-        <v>43941.666666666657</v>
+        <v>43942</v>
       </c>
       <c r="J27" t="s">
         <v>20</v>
@@ -1948,13 +2120,13 @@
         <v>25569</v>
       </c>
       <c r="N27">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="O27" t="b">
         <v>1</v>
       </c>
       <c r="P27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -1962,10 +2134,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -1974,31 +2146,31 @@
         <v>22</v>
       </c>
       <c r="G28" s="2">
-        <v>43941.456768113429</v>
+        <v>43942.307403460647</v>
       </c>
       <c r="H28" s="2">
-        <v>43941.738247604168</v>
+        <v>43942.500840104163</v>
       </c>
       <c r="I28" s="2">
-        <v>43941.666666666657</v>
+        <v>43942</v>
       </c>
       <c r="J28" t="s">
         <v>20</v>
       </c>
       <c r="K28" s="2">
-        <v>25569.083333333328</v>
+        <v>25569.041666666672</v>
       </c>
       <c r="L28" s="2">
-        <v>25569</v>
+        <v>25569.041616643521</v>
       </c>
       <c r="N28">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="O28" t="b">
         <v>1</v>
       </c>
       <c r="P28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -2006,34 +2178,34 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="2">
+        <v>43942.385211655092</v>
+      </c>
+      <c r="I29" s="2">
+        <v>44196</v>
+      </c>
+      <c r="J29" t="s">
         <v>49</v>
       </c>
-      <c r="D29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="2">
-        <v>43941.491816805552</v>
-      </c>
-      <c r="I29" s="2">
-        <v>43952</v>
-      </c>
-      <c r="J29" t="s">
-        <v>25</v>
-      </c>
       <c r="K29" s="2">
-        <v>25569</v>
+        <v>25569.416666666672</v>
       </c>
       <c r="L29" s="2">
         <v>25569</v>
       </c>
       <c r="N29">
-        <v>520</v>
+        <v>427</v>
       </c>
       <c r="O29" t="b">
         <v>0</v>
@@ -2047,43 +2219,43 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G30" s="2">
-        <v>43941.50847630787</v>
+        <v>43942.449071712967</v>
       </c>
       <c r="H30" s="2">
-        <v>43942.758076412043</v>
+        <v>43942.80517295139</v>
       </c>
       <c r="I30" s="2">
-        <v>43942.542071759257</v>
+        <v>43942</v>
       </c>
       <c r="J30" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K30" s="2">
-        <v>25569.020833333328</v>
+        <v>25569</v>
       </c>
       <c r="L30" s="2">
-        <v>25569</v>
+        <v>25569.05441572917</v>
       </c>
       <c r="N30">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
       </c>
       <c r="P30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q30">
         <v>1</v>
@@ -2091,34 +2263,31 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G31" s="2">
-        <v>43941.539647291669</v>
+        <v>43943.758076412043</v>
       </c>
       <c r="H31" s="2">
-        <v>43941.623180578703</v>
-      </c>
-      <c r="I31" s="2">
-        <v>43942</v>
+        <v>43943.633834756947</v>
       </c>
       <c r="J31" t="s">
         <v>20</v>
       </c>
       <c r="K31" s="2">
-        <v>25569</v>
+        <v>25569.020833333328</v>
       </c>
       <c r="L31" s="2">
-        <v>25569</v>
+        <v>25569.02983954861</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2127,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -2135,10 +2304,10 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
@@ -2147,25 +2316,22 @@
         <v>22</v>
       </c>
       <c r="G32" s="2">
-        <v>43942.307403460647</v>
+        <v>43942.777544386583</v>
       </c>
       <c r="H32" s="2">
-        <v>43942.500840104163</v>
-      </c>
-      <c r="I32" s="2">
-        <v>43942</v>
+        <v>43943.395973831008</v>
       </c>
       <c r="J32" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="K32" s="2">
-        <v>25569.041666666672</v>
+        <v>25569</v>
       </c>
       <c r="L32" s="2">
-        <v>25569.041616643521</v>
+        <v>25569</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" t="b">
         <v>1</v>
@@ -2179,43 +2345,43 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G33" s="2">
-        <v>43942.310727997683</v>
+        <v>43942.80476269676</v>
+      </c>
+      <c r="H33" s="2">
+        <v>43944.810842418978</v>
       </c>
       <c r="I33" s="2">
-        <v>43949</v>
+        <v>43944</v>
       </c>
       <c r="J33" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K33" s="2">
-        <v>25569</v>
+        <v>25569.041666666672</v>
       </c>
       <c r="L33" s="2">
-        <v>25569</v>
+        <v>25569.073611111111</v>
       </c>
       <c r="N33">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="O33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -2223,10 +2389,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
@@ -2235,28 +2401,28 @@
         <v>22</v>
       </c>
       <c r="G34" s="2">
-        <v>43942.385211655092</v>
+        <v>43943.39741503472</v>
       </c>
       <c r="I34" s="2">
         <v>44196</v>
       </c>
       <c r="J34" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K34" s="2">
-        <v>25569.416666666672</v>
+        <v>25569.041666666672</v>
       </c>
       <c r="L34" s="2">
         <v>25569</v>
       </c>
       <c r="N34">
-        <v>419</v>
+        <v>324</v>
       </c>
       <c r="O34" t="b">
         <v>0</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -2264,10 +2430,10 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -2276,25 +2442,25 @@
         <v>22</v>
       </c>
       <c r="G35" s="2">
-        <v>43942.449071712967</v>
+        <v>43943.425826192128</v>
       </c>
       <c r="H35" s="2">
-        <v>43942.80517295139</v>
+        <v>43943.759460763889</v>
       </c>
       <c r="I35" s="2">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="J35" t="s">
         <v>20</v>
       </c>
       <c r="K35" s="2">
-        <v>25569</v>
+        <v>25569.041666666672</v>
       </c>
       <c r="L35" s="2">
-        <v>25569.05441572917</v>
+        <v>25569.055690925921</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="b">
         <v>1</v>
@@ -2308,48 +2474,54 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
       </c>
       <c r="G36" s="2">
-        <v>43943.758076412043</v>
+        <v>43943.529597835652</v>
       </c>
       <c r="H36" s="2">
-        <v>43943.633834756947</v>
+        <v>43953.779807996369</v>
+      </c>
+      <c r="I36" s="2">
+        <v>43952.8125</v>
       </c>
       <c r="J36" t="s">
         <v>20</v>
       </c>
       <c r="K36" s="2">
-        <v>25569.020833333328</v>
+        <v>25569</v>
       </c>
       <c r="L36" s="2">
-        <v>25569.02983954861</v>
+        <v>25569.141761291019</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="b">
         <v>1</v>
       </c>
       <c r="P36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
         <v>56</v>
@@ -2361,22 +2533,22 @@
         <v>22</v>
       </c>
       <c r="G37" s="2">
-        <v>43942.777544386583</v>
+        <v>43943.531775567128</v>
       </c>
       <c r="H37" s="2">
-        <v>43943.395973831008</v>
+        <v>43943.7090527662</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K37" s="2">
-        <v>25569</v>
+        <v>25569.010416666672</v>
       </c>
       <c r="L37" s="2">
-        <v>25569</v>
+        <v>25569.06740866898</v>
       </c>
       <c r="N37">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O37" t="b">
         <v>1</v>
@@ -2390,7 +2562,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
         <v>57</v>
@@ -2402,31 +2574,28 @@
         <v>19</v>
       </c>
       <c r="G38" s="2">
-        <v>43942.80476269676</v>
+        <v>43943.533473136573</v>
       </c>
       <c r="H38" s="2">
-        <v>43944.810842418978</v>
-      </c>
-      <c r="I38" s="2">
-        <v>43944</v>
+        <v>43943.82564181713</v>
       </c>
       <c r="J38" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="K38" s="2">
-        <v>25569.041666666672</v>
+        <v>25569</v>
       </c>
       <c r="L38" s="2">
-        <v>25569.073611111111</v>
+        <v>25569.00002033565</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="O38" t="b">
         <v>1</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q38">
         <v>1</v>
@@ -2434,37 +2603,43 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G39" s="2">
-        <v>43943.39741503472</v>
+        <v>43944.633834756947</v>
+      </c>
+      <c r="H39" s="2">
+        <v>43945.47835070602</v>
+      </c>
+      <c r="I39" s="2">
+        <v>43944</v>
       </c>
       <c r="J39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K39" s="2">
-        <v>25569.041666666672</v>
+        <v>25569.020833333328</v>
       </c>
       <c r="L39" s="2">
-        <v>25569</v>
+        <v>25569.01972226852</v>
       </c>
       <c r="N39">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="O39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q39">
         <v>1</v>
@@ -2472,54 +2647,54 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <v>43943.825882754631</v>
+      </c>
+      <c r="I40" s="2">
+        <v>43962.958333333336</v>
+      </c>
+      <c r="J40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="2">
-        <v>43943.425826192128</v>
-      </c>
-      <c r="H40" s="2">
-        <v>43943.759460763889</v>
-      </c>
-      <c r="I40" s="2">
-        <v>43943</v>
-      </c>
-      <c r="J40" t="s">
-        <v>20</v>
-      </c>
       <c r="K40" s="2">
-        <v>25569.041666666672</v>
+        <v>25569</v>
       </c>
       <c r="L40" s="2">
-        <v>25569.055690925921</v>
+        <v>25569</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="O40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
@@ -2528,25 +2703,31 @@
         <v>22</v>
       </c>
       <c r="G41" s="2">
-        <v>43943.529597835652</v>
+        <v>43944.422416273148</v>
+      </c>
+      <c r="H41" s="2">
+        <v>43944.509168668978</v>
+      </c>
+      <c r="I41" s="2">
+        <v>43947</v>
       </c>
       <c r="J41" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="K41" s="2">
-        <v>25569</v>
+        <v>25569.010416666672</v>
       </c>
       <c r="L41" s="2">
-        <v>25569</v>
+        <v>25569.004782962958</v>
       </c>
       <c r="N41">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="O41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -2554,10 +2735,10 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -2566,19 +2747,22 @@
         <v>22</v>
       </c>
       <c r="G42" s="2">
-        <v>43943.531775567128</v>
+        <v>43944.491536620371</v>
       </c>
       <c r="H42" s="2">
-        <v>43943.7090527662</v>
+        <v>43944.509324999999</v>
+      </c>
+      <c r="I42" s="2">
+        <v>43947</v>
       </c>
       <c r="J42" t="s">
         <v>20</v>
       </c>
       <c r="K42" s="2">
-        <v>25569.010416666672</v>
+        <v>25569.006944444449</v>
       </c>
       <c r="L42" s="2">
-        <v>25569.06740866898</v>
+        <v>25569.014676736111</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2595,10 +2779,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -2607,28 +2791,31 @@
         <v>19</v>
       </c>
       <c r="G43" s="2">
-        <v>43943.533473136573</v>
+        <v>43944.559055034719</v>
       </c>
       <c r="H43" s="2">
-        <v>43943.82564181713</v>
+        <v>43944.810853831019</v>
+      </c>
+      <c r="I43" s="2">
+        <v>43947</v>
       </c>
       <c r="J43" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K43" s="2">
         <v>25569</v>
       </c>
       <c r="L43" s="2">
-        <v>25569.00002033565</v>
+        <v>25569.009027777782</v>
       </c>
       <c r="N43">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="O43" t="b">
         <v>1</v>
       </c>
       <c r="P43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -2636,34 +2823,34 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G44" s="2">
-        <v>43944.633834756947</v>
+        <v>43944.811822094911</v>
       </c>
       <c r="H44" s="2">
-        <v>43945.47835070602</v>
+        <v>43944.828036203697</v>
       </c>
       <c r="I44" s="2">
-        <v>43944</v>
+        <v>43947</v>
       </c>
       <c r="J44" t="s">
         <v>20</v>
       </c>
       <c r="K44" s="2">
-        <v>25569.020833333328</v>
+        <v>25569.010416666672</v>
       </c>
       <c r="L44" s="2">
-        <v>25569.01972226852</v>
+        <v>25569.01616771991</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -2672,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="P44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q44">
         <v>1</v>
@@ -2680,7 +2867,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
         <v>63</v>
@@ -2695,25 +2882,28 @@
         <v>1</v>
       </c>
       <c r="G45" s="2">
-        <v>43943.825882754631</v>
+        <v>43944.965993356484</v>
+      </c>
+      <c r="H45" s="2">
+        <v>43947.740776169179</v>
       </c>
       <c r="I45" s="2">
         <v>43948</v>
       </c>
       <c r="J45" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="K45" s="2">
-        <v>25569</v>
+        <v>25569.083333333328</v>
       </c>
       <c r="L45" s="2">
-        <v>25569</v>
+        <v>25569.161630892289</v>
       </c>
       <c r="N45">
-        <v>208</v>
+        <v>3</v>
       </c>
       <c r="O45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45">
         <v>1</v>
@@ -2724,7 +2914,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
         <v>64</v>
@@ -2735,26 +2925,32 @@
       <c r="E46" t="s">
         <v>22</v>
       </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
       <c r="G46" s="2">
-        <v>43944.419481469908</v>
+        <v>43945.429811828697</v>
+      </c>
+      <c r="H46" s="2">
+        <v>43945.712711238433</v>
       </c>
       <c r="I46" s="2">
-        <v>44196</v>
+        <v>43946.416666666657</v>
       </c>
       <c r="J46" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K46" s="2">
-        <v>25569</v>
+        <v>25569.006944444449</v>
       </c>
       <c r="L46" s="2">
-        <v>25569</v>
+        <v>25569.012666817129</v>
       </c>
       <c r="N46">
-        <v>523</v>
+        <v>0</v>
       </c>
       <c r="O46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46">
         <v>1</v>
@@ -2765,7 +2961,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
         <v>65</v>
@@ -2777,25 +2973,25 @@
         <v>22</v>
       </c>
       <c r="G47" s="2">
-        <v>43944.422416273148</v>
+        <v>43945.43035628472</v>
       </c>
       <c r="H47" s="2">
-        <v>43944.509168668978</v>
+        <v>43947.738962484262</v>
       </c>
       <c r="I47" s="2">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="J47" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="K47" s="2">
-        <v>25569.010416666672</v>
+        <v>25569</v>
       </c>
       <c r="L47" s="2">
-        <v>25569.004782962958</v>
+        <v>25569</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="O47" t="b">
         <v>1</v>
@@ -2809,7 +3005,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
         <v>66</v>
@@ -2821,25 +3017,25 @@
         <v>22</v>
       </c>
       <c r="G48" s="2">
-        <v>43944.491536620371</v>
+        <v>43945.432420636571</v>
       </c>
       <c r="H48" s="2">
-        <v>43944.509324999999</v>
+        <v>43945.566013842603</v>
       </c>
       <c r="I48" s="2">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="J48" t="s">
         <v>20</v>
       </c>
       <c r="K48" s="2">
-        <v>25569.006944444449</v>
+        <v>25569</v>
       </c>
       <c r="L48" s="2">
-        <v>25569.014676736111</v>
+        <v>25569.00711141204</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O48" t="b">
         <v>1</v>
@@ -2853,7 +3049,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
         <v>67</v>
@@ -2862,16 +3058,19 @@
         <v>18</v>
       </c>
       <c r="E49" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
       </c>
       <c r="G49" s="2">
-        <v>43944.559055034719</v>
+        <v>43945.432675011572</v>
       </c>
       <c r="H49" s="2">
-        <v>43944.810853831019</v>
+        <v>43945.695045081018</v>
       </c>
       <c r="I49" s="2">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="J49" t="s">
         <v>20</v>
@@ -2880,10 +3079,10 @@
         <v>25569</v>
       </c>
       <c r="L49" s="2">
-        <v>25569.009027777782</v>
+        <v>25569.047537592589</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O49" t="b">
         <v>1</v>
@@ -2897,7 +3096,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
         <v>68</v>
@@ -2908,26 +3107,29 @@
       <c r="E50" t="s">
         <v>22</v>
       </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
       <c r="G50" s="2">
-        <v>43944.811822094911</v>
+        <v>43945.448981631947</v>
       </c>
       <c r="H50" s="2">
-        <v>43944.828036203697</v>
+        <v>43945.646102372688</v>
       </c>
       <c r="I50" s="2">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="J50" t="s">
         <v>20</v>
       </c>
       <c r="K50" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L50" s="2">
         <v>25569.010416666672</v>
       </c>
-      <c r="L50" s="2">
-        <v>25569.01616771991</v>
-      </c>
       <c r="N50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" t="b">
         <v>1</v>
@@ -2941,7 +3143,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
         <v>69</v>
@@ -2952,35 +3154,32 @@
       <c r="E51" t="s">
         <v>22</v>
       </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
       <c r="G51" s="2">
-        <v>43944.965993356484</v>
+        <v>43945.458250833333</v>
+      </c>
+      <c r="H51" s="2">
+        <v>43945.518614328706</v>
       </c>
       <c r="I51" s="2">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="J51" t="s">
         <v>20</v>
       </c>
       <c r="K51" s="2">
-        <v>25569.083333333328</v>
+        <v>25569</v>
       </c>
       <c r="L51" s="2">
-        <v>25569.117864236108</v>
-      </c>
-      <c r="M51" s="2">
-        <v>43947.696957185937</v>
+        <v>25569.02404319444</v>
       </c>
       <c r="N51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O51" t="b">
         <v>1</v>
       </c>
       <c r="P51">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -2988,7 +3187,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
         <v>70</v>
@@ -3003,39 +3202,36 @@
         <v>1</v>
       </c>
       <c r="G52" s="2">
-        <v>43945.429811828697</v>
-      </c>
-      <c r="H52" s="2">
-        <v>43945.712711238433</v>
+        <v>43945.46835466435</v>
       </c>
       <c r="I52" s="2">
-        <v>43946.416666666657</v>
+        <v>43962.958333333336</v>
       </c>
       <c r="J52" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K52" s="2">
-        <v>25569.006944444449</v>
+        <v>25569</v>
       </c>
       <c r="L52" s="2">
-        <v>25569.012666817129</v>
+        <v>25569</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="O52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
         <v>71</v>
@@ -3047,13 +3243,13 @@
         <v>22</v>
       </c>
       <c r="G53" s="2">
-        <v>43945.43035628472</v>
+        <v>43945.475537094913</v>
       </c>
       <c r="I53" s="2">
-        <v>43948</v>
+        <v>44192</v>
       </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K53" s="2">
         <v>25569</v>
@@ -3062,13 +3258,13 @@
         <v>25569</v>
       </c>
       <c r="N53">
-        <v>106</v>
+        <v>531</v>
       </c>
       <c r="O53" t="b">
         <v>0</v>
       </c>
       <c r="P53">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q53">
         <v>1</v>
@@ -3076,7 +3272,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
         <v>72</v>
@@ -3087,14 +3283,17 @@
       <c r="E54" t="s">
         <v>22</v>
       </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
       <c r="G54" s="2">
-        <v>43945.432420636571</v>
+        <v>43945.478181979168</v>
       </c>
       <c r="H54" s="2">
-        <v>43945.566013842603</v>
+        <v>43945.752418784723</v>
       </c>
       <c r="I54" s="2">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="J54" t="s">
         <v>20</v>
@@ -3103,10 +3302,10 @@
         <v>25569</v>
       </c>
       <c r="L54" s="2">
-        <v>25569.00711141204</v>
+        <v>25569.039618946761</v>
       </c>
       <c r="N54">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="O54" t="b">
         <v>1</v>
@@ -3120,37 +3319,37 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
       </c>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
       <c r="G55" s="2">
-        <v>43945.432675011572</v>
+        <v>43946.47835070602</v>
       </c>
       <c r="H55" s="2">
-        <v>43945.695045081018</v>
+        <v>43947.495042627314</v>
       </c>
       <c r="I55" s="2">
-        <v>43948</v>
+        <v>43947.666666666657</v>
       </c>
       <c r="J55" t="s">
         <v>20</v>
       </c>
       <c r="K55" s="2">
-        <v>25569</v>
+        <v>25569.020833333328</v>
       </c>
       <c r="L55" s="2">
-        <v>25569.047537592589</v>
+        <v>25569.02827780092</v>
       </c>
       <c r="N55">
         <v>2</v>
@@ -3159,7 +3358,7 @@
         <v>1</v>
       </c>
       <c r="P55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q55">
         <v>1</v>
@@ -3167,28 +3366,28 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
       </c>
       <c r="E56" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G56" s="2">
-        <v>43945.448981631947</v>
+        <v>43947.684810636572</v>
       </c>
       <c r="H56" s="2">
-        <v>43945.646102372688</v>
+        <v>43945.802807395827</v>
       </c>
       <c r="I56" s="2">
-        <v>43948</v>
+        <v>43945.916666666657</v>
       </c>
       <c r="J56" t="s">
         <v>20</v>
@@ -3197,7 +3396,7 @@
         <v>25569</v>
       </c>
       <c r="L56" s="2">
-        <v>25569.010416666672</v>
+        <v>25569.02253633102</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3206,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="P56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q56">
         <v>1</v>
@@ -3214,54 +3413,57 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
       </c>
       <c r="G57" s="2">
-        <v>43945.458250833333</v>
+        <v>43947.802807395827</v>
       </c>
       <c r="H57" s="2">
-        <v>43945.518614328706</v>
+        <v>43949.872727937371</v>
       </c>
       <c r="I57" s="2">
-        <v>43945</v>
+        <v>43949.833333333343</v>
       </c>
       <c r="J57" t="s">
         <v>20</v>
       </c>
       <c r="K57" s="2">
-        <v>25569</v>
+        <v>25569.020833333328</v>
       </c>
       <c r="L57" s="2">
-        <v>25569.02404319444</v>
+        <v>25569.022331967011</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="O57" t="b">
         <v>1</v>
       </c>
       <c r="P57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q57">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
@@ -3273,13 +3475,13 @@
         <v>1</v>
       </c>
       <c r="G58" s="2">
-        <v>43945.46835466435</v>
+        <v>43945.851959363426</v>
       </c>
       <c r="I58" s="2">
-        <v>43961</v>
+        <v>43962.958333333336</v>
       </c>
       <c r="J58" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="K58" s="2">
         <v>25569</v>
@@ -3288,13 +3490,13 @@
         <v>25569</v>
       </c>
       <c r="N58">
-        <v>524</v>
+        <v>107</v>
       </c>
       <c r="O58" t="b">
         <v>0</v>
       </c>
       <c r="P58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q58">
         <v>1</v>
@@ -3302,10 +3504,10 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -3313,14 +3515,20 @@
       <c r="E59" t="s">
         <v>22</v>
       </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
       <c r="G59" s="2">
-        <v>43945.475537094913</v>
+        <v>43945.852494039347</v>
+      </c>
+      <c r="H59" s="2">
+        <v>43957.808351966298</v>
       </c>
       <c r="I59" s="2">
-        <v>44192</v>
+        <v>43959.958333333343</v>
       </c>
       <c r="J59" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="K59" s="2">
         <v>25569</v>
@@ -3329,13 +3537,13 @@
         <v>25569</v>
       </c>
       <c r="N59">
-        <v>525</v>
+        <v>118</v>
       </c>
       <c r="O59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -3343,10 +3551,10 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
@@ -3358,42 +3566,42 @@
         <v>1</v>
       </c>
       <c r="G60" s="2">
-        <v>43945.478181979168</v>
+        <v>43947.456175509258</v>
       </c>
       <c r="H60" s="2">
-        <v>43945.752418784723</v>
+        <v>43948.8400237272</v>
       </c>
       <c r="I60" s="2">
-        <v>43946</v>
+        <v>43948.958333333343</v>
       </c>
       <c r="J60" t="s">
         <v>20</v>
       </c>
       <c r="K60" s="2">
-        <v>25569</v>
+        <v>25569.083333333328</v>
       </c>
       <c r="L60" s="2">
-        <v>25569.039618946761</v>
+        <v>25569.063959034869</v>
       </c>
       <c r="N60">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="O60" t="b">
         <v>1</v>
       </c>
       <c r="P60">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
@@ -3405,13 +3613,13 @@
         <v>1</v>
       </c>
       <c r="G61" s="2">
-        <v>43946.47835070602</v>
+        <v>43948.495947233787</v>
       </c>
       <c r="H61" s="2">
-        <v>43947.495042627314</v>
+        <v>43948.506136380784</v>
       </c>
       <c r="I61" s="2">
-        <v>43947.666666666657</v>
+        <v>43948.958333333343</v>
       </c>
       <c r="J61" t="s">
         <v>20</v>
@@ -3420,10 +3628,10 @@
         <v>25569.020833333328</v>
       </c>
       <c r="L61" s="2">
-        <v>25569.02827780092</v>
+        <v>25569.019642167648</v>
       </c>
       <c r="N61">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="O61" t="b">
         <v>1</v>
@@ -3437,90 +3645,87 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D62" t="s">
         <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" s="2">
-        <v>43947.684810636572</v>
-      </c>
-      <c r="H62" s="2">
-        <v>43945.802807395827</v>
+        <v>43947.531239652781</v>
       </c>
       <c r="I62" s="2">
-        <v>43945.916666666657</v>
+        <v>43962.958333333336</v>
       </c>
       <c r="J62" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="K62" s="2">
         <v>25569</v>
       </c>
       <c r="L62" s="2">
-        <v>25569.02253633102</v>
+        <v>25569</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="O62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
         <v>4</v>
-      </c>
-      <c r="Q62">
-        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
       </c>
       <c r="E63" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" s="2">
-        <v>43947.802807395827</v>
+        <v>43948.428210741753</v>
       </c>
       <c r="I63" s="2">
-        <v>43947.958333333343</v>
+        <v>43962.958333333336</v>
       </c>
       <c r="J63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K63" s="2">
-        <v>25569</v>
+        <v>25569.0625</v>
       </c>
       <c r="L63" s="2">
         <v>25569</v>
       </c>
       <c r="N63">
-        <v>107</v>
+        <v>426</v>
       </c>
       <c r="O63" t="b">
         <v>0</v>
       </c>
       <c r="P63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q63">
         <v>1</v>
@@ -3528,10 +3733,10 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
@@ -3543,39 +3748,42 @@
         <v>1</v>
       </c>
       <c r="G64" s="2">
-        <v>43945.851959363426</v>
+        <v>43948.429496522862</v>
+      </c>
+      <c r="H64" s="2">
+        <v>43948.470561570517</v>
       </c>
       <c r="I64" s="2">
-        <v>43947.708333333343</v>
+        <v>43948.958333333343</v>
       </c>
       <c r="J64" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K64" s="2">
-        <v>25569</v>
+        <v>25569.006944444449</v>
       </c>
       <c r="L64" s="2">
-        <v>25569</v>
+        <v>25569.00473550638</v>
       </c>
       <c r="N64">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="O64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
@@ -3587,28 +3795,31 @@
         <v>1</v>
       </c>
       <c r="G65" s="2">
-        <v>43945.852494039347</v>
+        <v>43948.509799789317</v>
+      </c>
+      <c r="H65" s="2">
+        <v>43948.516907680809</v>
       </c>
       <c r="I65" s="2">
-        <v>43947.708333333343</v>
+        <v>43948.958333333343</v>
       </c>
       <c r="J65" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K65" s="2">
         <v>25569</v>
       </c>
       <c r="L65" s="2">
-        <v>25569</v>
+        <v>25569.00705612827</v>
       </c>
       <c r="N65">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="O65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -3616,43 +3827,46 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="D66" t="s">
         <v>18</v>
       </c>
       <c r="E66" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F66">
         <v>1</v>
       </c>
       <c r="G66" s="2">
-        <v>43947.456175509258</v>
+        <v>43949.516607900739</v>
+      </c>
+      <c r="H66" s="2">
+        <v>43949.577387484169</v>
       </c>
       <c r="I66" s="2">
-        <v>43948.958333333343</v>
+        <v>43949.958333333343</v>
       </c>
       <c r="J66" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="K66" s="2">
-        <v>25569.083333333328</v>
+        <v>25569.020833333328</v>
       </c>
       <c r="L66" s="2">
-        <v>25569</v>
+        <v>25569.01448187407</v>
       </c>
       <c r="N66">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="O66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -3660,54 +3874,57 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
       </c>
       <c r="E67" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F67">
         <v>1</v>
       </c>
       <c r="G67" s="2">
-        <v>43948.495947233787</v>
+        <v>43949.396422121637</v>
+      </c>
+      <c r="H67" s="2">
+        <v>43949.716300679087</v>
       </c>
       <c r="I67" s="2">
-        <v>43948.958333333343</v>
+        <v>43949.958333333343</v>
       </c>
       <c r="J67" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="K67" s="2">
-        <v>25569.020833333328</v>
+        <v>25569.041666666672</v>
       </c>
       <c r="L67" s="2">
-        <v>25569</v>
+        <v>25569.10311610335</v>
       </c>
       <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67" t="b">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>6</v>
+      </c>
+      <c r="Q67">
         <v>2</v>
-      </c>
-      <c r="O67" t="b">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>3</v>
-      </c>
-      <c r="Q67">
-        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D68" t="s">
         <v>18</v>
@@ -3719,39 +3936,42 @@
         <v>1</v>
       </c>
       <c r="G68" s="2">
-        <v>43947.531239652781</v>
+        <v>43949.397147056479</v>
+      </c>
+      <c r="H68" s="2">
+        <v>43950.572224431016</v>
       </c>
       <c r="I68" s="2">
-        <v>43948.958333333343</v>
+        <v>43950.958333333343</v>
       </c>
       <c r="J68" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K68" s="2">
-        <v>25569</v>
+        <v>25569.083333333328</v>
       </c>
       <c r="L68" s="2">
-        <v>25569</v>
+        <v>25569.029800113221</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
@@ -3763,13 +3983,13 @@
         <v>1</v>
       </c>
       <c r="G69" s="2">
-        <v>43947.662689271063</v>
+        <v>43949.39797888507</v>
       </c>
       <c r="I69" s="2">
-        <v>43947.958333333343</v>
+        <v>43962.958333333336</v>
       </c>
       <c r="J69" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K69" s="2">
         <v>25569</v>
@@ -3778,24 +3998,24 @@
         <v>25569</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="O69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P69">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
@@ -3807,13 +4027,16 @@
         <v>1</v>
       </c>
       <c r="G70" s="2">
-        <v>43947.684417306038</v>
+        <v>43949.404339333123</v>
+      </c>
+      <c r="H70" s="2">
+        <v>43952.940655202707</v>
       </c>
       <c r="I70" s="2">
-        <v>43947.958333333343</v>
+        <v>43952.958333333343</v>
       </c>
       <c r="J70" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="K70" s="2">
         <v>25569</v>
@@ -3822,24 +4045,24 @@
         <v>25569</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="O70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P70">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q70">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
@@ -3851,75 +4074,2189 @@
         <v>1</v>
       </c>
       <c r="G71" s="2">
-        <v>43947.68645827302</v>
+        <v>43949.426135913352</v>
+      </c>
+      <c r="H71" s="2">
+        <v>43949.435406265213</v>
       </c>
       <c r="I71" s="2">
-        <v>43947.958333333343</v>
+        <v>43949.958333333343</v>
       </c>
       <c r="J71" t="s">
         <v>20</v>
       </c>
       <c r="K71" s="2">
-        <v>25569</v>
+        <v>25569.006944444449</v>
       </c>
       <c r="L71" s="2">
-        <v>25569</v>
+        <v>25569.0091933279</v>
       </c>
       <c r="N71">
         <v>0</v>
       </c>
       <c r="O71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B72" t="s">
+        <v>85</v>
+      </c>
+      <c r="D72" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" s="2">
+        <v>43949.435720588197</v>
+      </c>
+      <c r="H72" s="2">
+        <v>43949.457957062892</v>
+      </c>
+      <c r="I72" s="2">
+        <v>43949.958333333343</v>
+      </c>
+      <c r="J72" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" s="2">
+        <v>25569.020833333328</v>
+      </c>
+      <c r="L72" s="2">
+        <v>25569.01643642105</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72" t="b">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>6</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>82</v>
+      </c>
+      <c r="B73" t="s">
         <v>86</v>
       </c>
-      <c r="D72" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" t="s">
-        <v>22</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72" s="2">
-        <v>43947.688148357258</v>
-      </c>
-      <c r="I72" s="2">
-        <v>43947.958333333343</v>
-      </c>
-      <c r="J72" t="s">
-        <v>20</v>
-      </c>
-      <c r="K72" s="2">
-        <v>25569</v>
-      </c>
-      <c r="L72" s="2">
-        <v>25569</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="O72" t="b">
-        <v>0</v>
-      </c>
-      <c r="P72">
-        <v>1</v>
-      </c>
-      <c r="Q72">
-        <v>1</v>
+      <c r="D73" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" s="2">
+        <v>43949.438423077278</v>
+      </c>
+      <c r="I73" s="2">
+        <v>43962.958333333336</v>
+      </c>
+      <c r="J73" t="s">
+        <v>39</v>
+      </c>
+      <c r="K73" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L73" s="2">
+        <v>25569</v>
+      </c>
+      <c r="N73">
+        <v>215</v>
+      </c>
+      <c r="O73" t="b">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>83</v>
+      </c>
+      <c r="B74" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" s="2">
+        <v>43950.577387484169</v>
+      </c>
+      <c r="H74" s="2">
+        <v>43949.974498480391</v>
+      </c>
+      <c r="I74" s="2">
+        <v>43950.958333333343</v>
+      </c>
+      <c r="J74" t="s">
+        <v>20</v>
+      </c>
+      <c r="K74" s="2">
+        <v>25569.020833333328</v>
+      </c>
+      <c r="L74" s="2">
+        <v>25569.026356966158</v>
+      </c>
+      <c r="N74">
+        <v>201</v>
+      </c>
+      <c r="O74" t="b">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>3</v>
+      </c>
+      <c r="Q74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>84</v>
+      </c>
+      <c r="B75" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" s="2">
+        <v>43949.716019731168</v>
+      </c>
+      <c r="H75" s="2">
+        <v>43949.833782336158</v>
+      </c>
+      <c r="I75" s="2">
+        <v>43949.958333333343</v>
+      </c>
+      <c r="J75" t="s">
+        <v>20</v>
+      </c>
+      <c r="K75" s="2">
+        <v>25569.041666666672</v>
+      </c>
+      <c r="L75" s="2">
+        <v>25569.095045473368</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75" t="b">
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <v>6</v>
+      </c>
+      <c r="Q75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>85</v>
+      </c>
+      <c r="B76" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" s="2">
+        <v>43949.834174188603</v>
+      </c>
+      <c r="H76" s="2">
+        <v>43958.819997555831</v>
+      </c>
+      <c r="I76" s="2">
+        <v>43958.958333333343</v>
+      </c>
+      <c r="J76" t="s">
+        <v>20</v>
+      </c>
+      <c r="K76" s="2">
+        <v>25569.208333333328</v>
+      </c>
+      <c r="L76" s="2">
+        <v>25569.084511048899</v>
+      </c>
+      <c r="N76">
+        <v>2</v>
+      </c>
+      <c r="O76" t="b">
+        <v>1</v>
+      </c>
+      <c r="P76">
+        <v>6</v>
+      </c>
+      <c r="Q76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>86</v>
+      </c>
+      <c r="B77" t="s">
+        <v>51</v>
+      </c>
+      <c r="D77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77" s="2">
+        <v>43951.872727937371</v>
+      </c>
+      <c r="H77" s="2">
+        <v>43951.884457924119</v>
+      </c>
+      <c r="I77" s="2">
+        <v>43951.958333333343</v>
+      </c>
+      <c r="J77" t="s">
+        <v>45</v>
+      </c>
+      <c r="K77" s="2">
+        <v>25569.020833333328</v>
+      </c>
+      <c r="L77" s="2">
+        <v>25569</v>
+      </c>
+      <c r="N77">
+        <v>110</v>
+      </c>
+      <c r="O77" t="b">
+        <v>1</v>
+      </c>
+      <c r="P77">
+        <v>4</v>
+      </c>
+      <c r="Q77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>87</v>
+      </c>
+      <c r="B78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" s="2">
+        <v>43950.974498480391</v>
+      </c>
+      <c r="H78" s="2">
+        <v>43951.687766972849</v>
+      </c>
+      <c r="I78" s="2">
+        <v>43951.958333333343</v>
+      </c>
+      <c r="J78" t="s">
+        <v>20</v>
+      </c>
+      <c r="K78" s="2">
+        <v>25569.020833333328</v>
+      </c>
+      <c r="L78" s="2">
+        <v>25569.033816064679</v>
+      </c>
+      <c r="N78">
+        <v>104</v>
+      </c>
+      <c r="O78" t="b">
+        <v>1</v>
+      </c>
+      <c r="P78">
+        <v>3</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>88</v>
+      </c>
+      <c r="B79" t="s">
+        <v>89</v>
+      </c>
+      <c r="D79" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" s="2">
+        <v>43950.572123060017</v>
+      </c>
+      <c r="I79" s="2">
+        <v>43962.958333333336</v>
+      </c>
+      <c r="J79" t="s">
+        <v>45</v>
+      </c>
+      <c r="K79" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L79" s="2">
+        <v>25569</v>
+      </c>
+      <c r="N79">
+        <v>3</v>
+      </c>
+      <c r="O79" t="b">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>89</v>
+      </c>
+      <c r="B80" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43950.579948392558</v>
+      </c>
+      <c r="I80" s="2">
+        <v>43962.958333333336</v>
+      </c>
+      <c r="J80" t="s">
+        <v>39</v>
+      </c>
+      <c r="K80" s="2">
+        <v>25569.041666666672</v>
+      </c>
+      <c r="L80" s="2">
+        <v>25569</v>
+      </c>
+      <c r="N80">
+        <v>221</v>
+      </c>
+      <c r="O80" t="b">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>90</v>
+      </c>
+      <c r="B81" t="s">
+        <v>91</v>
+      </c>
+      <c r="D81" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" s="2">
+        <v>43950.581096017537</v>
+      </c>
+      <c r="H81" s="2">
+        <v>43950.877292314639</v>
+      </c>
+      <c r="I81" s="2">
+        <v>43950.958333333343</v>
+      </c>
+      <c r="J81" t="s">
+        <v>20</v>
+      </c>
+      <c r="K81" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L81" s="2">
+        <v>25569.01714461454</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81" t="b">
+        <v>1</v>
+      </c>
+      <c r="P81">
+        <v>5</v>
+      </c>
+      <c r="Q81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>91</v>
+      </c>
+      <c r="B82" t="s">
+        <v>92</v>
+      </c>
+      <c r="D82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" s="2">
+        <v>43950.645574489303</v>
+      </c>
+      <c r="H82" s="2">
+        <v>43955.666250492417</v>
+      </c>
+      <c r="I82" s="2">
+        <v>43955.958333333343</v>
+      </c>
+      <c r="J82" t="s">
+        <v>20</v>
+      </c>
+      <c r="K82" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L82" s="2">
+        <v>25569.014027777779</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82" t="b">
+        <v>1</v>
+      </c>
+      <c r="P82">
+        <v>6</v>
+      </c>
+      <c r="Q82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>92</v>
+      </c>
+      <c r="B83" t="s">
+        <v>93</v>
+      </c>
+      <c r="D83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" s="2">
+        <v>43951.568748313388</v>
+      </c>
+      <c r="I83" s="2">
+        <v>43962.958333333336</v>
+      </c>
+      <c r="J83" t="s">
+        <v>39</v>
+      </c>
+      <c r="K83" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L83" s="2">
+        <v>25569</v>
+      </c>
+      <c r="N83">
+        <v>212</v>
+      </c>
+      <c r="O83" t="b">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>93</v>
+      </c>
+      <c r="B84" t="s">
+        <v>94</v>
+      </c>
+      <c r="D84" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" s="2">
+        <v>43951.570831320707</v>
+      </c>
+      <c r="I84" s="2">
+        <v>43962.958333333336</v>
+      </c>
+      <c r="J84" t="s">
+        <v>39</v>
+      </c>
+      <c r="K84" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L84" s="2">
+        <v>25569</v>
+      </c>
+      <c r="N84">
+        <v>213</v>
+      </c>
+      <c r="O84" t="b">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>94</v>
+      </c>
+      <c r="B85" t="s">
+        <v>95</v>
+      </c>
+      <c r="D85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" s="2">
+        <v>43951.581506634233</v>
+      </c>
+      <c r="H85" s="2">
+        <v>43952.500720938457</v>
+      </c>
+      <c r="I85" s="2">
+        <v>43952.958333333343</v>
+      </c>
+      <c r="J85" t="s">
+        <v>20</v>
+      </c>
+      <c r="K85" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L85" s="2">
+        <v>25569.013924177769</v>
+      </c>
+      <c r="N85">
+        <v>106</v>
+      </c>
+      <c r="O85" t="b">
+        <v>1</v>
+      </c>
+      <c r="P85">
+        <v>9</v>
+      </c>
+      <c r="Q85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>95</v>
+      </c>
+      <c r="B86" t="s">
+        <v>96</v>
+      </c>
+      <c r="D86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" t="s">
+        <v>22</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" s="2">
+        <v>43952.607665047661</v>
+      </c>
+      <c r="H86" s="2">
+        <v>43953.767800382688</v>
+      </c>
+      <c r="I86" s="2">
+        <v>43952.958333333343</v>
+      </c>
+      <c r="J86" t="s">
+        <v>20</v>
+      </c>
+      <c r="K86" s="2">
+        <v>25569.020833333328</v>
+      </c>
+      <c r="L86" s="2">
+        <v>25569.103472222221</v>
+      </c>
+      <c r="N86">
+        <v>212</v>
+      </c>
+      <c r="O86" t="b">
+        <v>1</v>
+      </c>
+      <c r="P86">
+        <v>3</v>
+      </c>
+      <c r="Q86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>96</v>
+      </c>
+      <c r="B87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D87" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87" t="s">
+        <v>22</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" s="2">
+        <v>43951.699484208082</v>
+      </c>
+      <c r="H87" s="2">
+        <v>43959.634667305058</v>
+      </c>
+      <c r="I87" s="2">
+        <v>43959.958333333343</v>
+      </c>
+      <c r="J87" t="s">
+        <v>20</v>
+      </c>
+      <c r="K87" s="2">
+        <v>25569.083333333328</v>
+      </c>
+      <c r="L87" s="2">
+        <v>25569.03685980682</v>
+      </c>
+      <c r="N87">
+        <v>210</v>
+      </c>
+      <c r="O87" t="b">
+        <v>1</v>
+      </c>
+      <c r="P87">
+        <v>5</v>
+      </c>
+      <c r="Q87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>97</v>
+      </c>
+      <c r="B88" t="s">
+        <v>98</v>
+      </c>
+      <c r="D88" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88" t="s">
+        <v>22</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" s="2">
+        <v>43951.700853642789</v>
+      </c>
+      <c r="I88" s="2">
+        <v>43962.958333333336</v>
+      </c>
+      <c r="J88" t="s">
+        <v>45</v>
+      </c>
+      <c r="K88" s="2">
+        <v>25569.125</v>
+      </c>
+      <c r="L88" s="2">
+        <v>25569.030891588802</v>
+      </c>
+      <c r="N88">
+        <v>211</v>
+      </c>
+      <c r="O88" t="b">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>5</v>
+      </c>
+      <c r="Q88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>98</v>
+      </c>
+      <c r="B89" t="s">
+        <v>99</v>
+      </c>
+      <c r="D89" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" t="s">
+        <v>22</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" s="2">
+        <v>43951.702074744353</v>
+      </c>
+      <c r="I89" s="2">
+        <v>43962.958333333336</v>
+      </c>
+      <c r="J89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K89" s="2">
+        <v>25569.125</v>
+      </c>
+      <c r="L89" s="2">
+        <v>25569</v>
+      </c>
+      <c r="N89">
+        <v>323</v>
+      </c>
+      <c r="O89" t="b">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>5</v>
+      </c>
+      <c r="Q89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>99</v>
+      </c>
+      <c r="B90" t="s">
+        <v>51</v>
+      </c>
+      <c r="D90" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90" s="2">
+        <v>43953.884457924119</v>
+      </c>
+      <c r="H90" s="2">
+        <v>43953.849291868617</v>
+      </c>
+      <c r="I90" s="2">
+        <v>43953.958333333343</v>
+      </c>
+      <c r="J90" t="s">
+        <v>39</v>
+      </c>
+      <c r="K90" s="2">
+        <v>25569.020833333328</v>
+      </c>
+      <c r="L90" s="2">
+        <v>25569</v>
+      </c>
+      <c r="N90">
+        <v>207</v>
+      </c>
+      <c r="O90" t="b">
+        <v>1</v>
+      </c>
+      <c r="P90">
+        <v>4</v>
+      </c>
+      <c r="Q90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>101</v>
+      </c>
+      <c r="B91" t="s">
+        <v>100</v>
+      </c>
+      <c r="D91" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" s="2">
+        <v>43952.399126764212</v>
+      </c>
+      <c r="H91" s="2">
+        <v>43952.403687486207</v>
+      </c>
+      <c r="I91" s="2">
+        <v>43952.958333333343</v>
+      </c>
+      <c r="J91" t="s">
+        <v>20</v>
+      </c>
+      <c r="K91" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L91" s="2">
+        <v>25569.00441723449</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91" t="b">
+        <v>1</v>
+      </c>
+      <c r="P91">
+        <v>9</v>
+      </c>
+      <c r="Q91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>102</v>
+      </c>
+      <c r="B92" t="s">
+        <v>101</v>
+      </c>
+      <c r="D92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" t="s">
+        <v>22</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" s="2">
+        <v>43952.402319246517</v>
+      </c>
+      <c r="I92" s="2">
+        <v>43962.958333333336</v>
+      </c>
+      <c r="J92" t="s">
+        <v>39</v>
+      </c>
+      <c r="K92" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L92" s="2">
+        <v>25569</v>
+      </c>
+      <c r="N92">
+        <v>208</v>
+      </c>
+      <c r="O92" t="b">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>103</v>
+      </c>
+      <c r="B93" t="s">
+        <v>102</v>
+      </c>
+      <c r="D93" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" t="s">
+        <v>22</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93" s="2">
+        <v>43952.612321726898</v>
+      </c>
+      <c r="H93" s="2">
+        <v>43952.709057120133</v>
+      </c>
+      <c r="I93" s="2">
+        <v>43952.958333333343</v>
+      </c>
+      <c r="J93" t="s">
+        <v>20</v>
+      </c>
+      <c r="K93" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L93" s="2">
+        <v>25569.014293670509</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93" t="b">
+        <v>1</v>
+      </c>
+      <c r="P93">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>105</v>
+      </c>
+      <c r="B94" t="s">
+        <v>51</v>
+      </c>
+      <c r="D94" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94" s="2">
+        <v>43955.849291868617</v>
+      </c>
+      <c r="H94" s="2">
+        <v>43956.899718747452</v>
+      </c>
+      <c r="I94" s="2">
+        <v>43956.958333333343</v>
+      </c>
+      <c r="J94" t="s">
+        <v>45</v>
+      </c>
+      <c r="K94" s="2">
+        <v>25569.020833333328</v>
+      </c>
+      <c r="L94" s="2">
+        <v>25569</v>
+      </c>
+      <c r="N94">
+        <v>107</v>
+      </c>
+      <c r="O94" t="b">
+        <v>1</v>
+      </c>
+      <c r="P94">
+        <v>4</v>
+      </c>
+      <c r="Q94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>107</v>
+      </c>
+      <c r="B95" t="s">
+        <v>103</v>
+      </c>
+      <c r="D95" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" t="s">
+        <v>22</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95" s="2">
+        <v>43955.477774527113</v>
+      </c>
+      <c r="I95" s="2">
+        <v>43968.958333333343</v>
+      </c>
+      <c r="J95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K95" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L95" s="2">
+        <v>25569</v>
+      </c>
+      <c r="N95">
+        <v>322</v>
+      </c>
+      <c r="O95" t="b">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>2</v>
+      </c>
+      <c r="Q95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>108</v>
+      </c>
+      <c r="B96" t="s">
+        <v>104</v>
+      </c>
+      <c r="D96" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" t="s">
+        <v>22</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96" s="2">
+        <v>43955.483529602803</v>
+      </c>
+      <c r="I96" s="2">
+        <v>43962.958333333336</v>
+      </c>
+      <c r="J96" t="s">
+        <v>39</v>
+      </c>
+      <c r="K96" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L96" s="2">
+        <v>25569</v>
+      </c>
+      <c r="N96">
+        <v>209</v>
+      </c>
+      <c r="O96" t="b">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>109</v>
+      </c>
+      <c r="B97" t="s">
+        <v>105</v>
+      </c>
+      <c r="D97" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97" s="2">
+        <v>43955.484662593888</v>
+      </c>
+      <c r="H97" s="2">
+        <v>43955.666281552672</v>
+      </c>
+      <c r="I97" s="2">
+        <v>43955.958333333343</v>
+      </c>
+      <c r="J97" t="s">
+        <v>20</v>
+      </c>
+      <c r="K97" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L97" s="2">
+        <v>25569.03188457662</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97" t="b">
+        <v>1</v>
+      </c>
+      <c r="P97">
+        <v>6</v>
+      </c>
+      <c r="Q97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>110</v>
+      </c>
+      <c r="B98" t="s">
+        <v>106</v>
+      </c>
+      <c r="D98" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" t="s">
+        <v>22</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" s="2">
+        <v>43955.484988427022</v>
+      </c>
+      <c r="H98" s="2">
+        <v>43955.501053303728</v>
+      </c>
+      <c r="I98" s="2">
+        <v>43955.958333333343</v>
+      </c>
+      <c r="J98" t="s">
+        <v>20</v>
+      </c>
+      <c r="K98" s="2">
+        <v>25569.020833333328</v>
+      </c>
+      <c r="L98" s="2">
+        <v>25569.006134737581</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98" t="b">
+        <v>1</v>
+      </c>
+      <c r="P98">
+        <v>1</v>
+      </c>
+      <c r="Q98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>111</v>
+      </c>
+      <c r="B99" t="s">
+        <v>107</v>
+      </c>
+      <c r="D99" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" t="s">
+        <v>22</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" s="2">
+        <v>43955.723999604568</v>
+      </c>
+      <c r="H99" s="2">
+        <v>43956.494678113413</v>
+      </c>
+      <c r="I99" s="2">
+        <v>43956.958333333343</v>
+      </c>
+      <c r="J99" t="s">
+        <v>20</v>
+      </c>
+      <c r="K99" s="2">
+        <v>25569.020833333328</v>
+      </c>
+      <c r="L99" s="2">
+        <v>25569.058556673099</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99" t="b">
+        <v>1</v>
+      </c>
+      <c r="P99">
+        <v>6</v>
+      </c>
+      <c r="Q99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>112</v>
+      </c>
+      <c r="B100" t="s">
+        <v>108</v>
+      </c>
+      <c r="D100" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" t="s">
+        <v>19</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" s="2">
+        <v>43956.432282657617</v>
+      </c>
+      <c r="H100" s="2">
+        <v>43957.590390328718</v>
+      </c>
+      <c r="I100" s="2">
+        <v>43957.958333333343</v>
+      </c>
+      <c r="J100" t="s">
+        <v>20</v>
+      </c>
+      <c r="K100" s="2">
+        <v>25569.020833333328</v>
+      </c>
+      <c r="L100" s="2">
+        <v>25569.02500674468</v>
+      </c>
+      <c r="N100">
+        <v>100</v>
+      </c>
+      <c r="O100" t="b">
+        <v>1</v>
+      </c>
+      <c r="P100">
+        <v>3</v>
+      </c>
+      <c r="Q100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>113</v>
+      </c>
+      <c r="B101" t="s">
+        <v>109</v>
+      </c>
+      <c r="D101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" t="s">
+        <v>22</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101" s="2">
+        <v>43956.43449216037</v>
+      </c>
+      <c r="I101" s="2">
+        <v>43962.958333333336</v>
+      </c>
+      <c r="J101" t="s">
+        <v>45</v>
+      </c>
+      <c r="K101" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L101" s="2">
+        <v>25569</v>
+      </c>
+      <c r="N101">
+        <v>105</v>
+      </c>
+      <c r="O101" t="b">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>1</v>
+      </c>
+      <c r="Q101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>114</v>
+      </c>
+      <c r="B102" t="s">
+        <v>110</v>
+      </c>
+      <c r="D102" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" t="s">
+        <v>22</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" s="2">
+        <v>43956.542513965112</v>
+      </c>
+      <c r="H102" s="2">
+        <v>43956.676416533803</v>
+      </c>
+      <c r="I102" s="2">
+        <v>43956.958333333343</v>
+      </c>
+      <c r="J102" t="s">
+        <v>20</v>
+      </c>
+      <c r="K102" s="2">
+        <v>25569.041666666672</v>
+      </c>
+      <c r="L102" s="2">
+        <v>25569.115711810009</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102" t="b">
+        <v>1</v>
+      </c>
+      <c r="P102">
+        <v>6</v>
+      </c>
+      <c r="Q102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>115</v>
+      </c>
+      <c r="B103" t="s">
+        <v>51</v>
+      </c>
+      <c r="D103" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103" s="2">
+        <v>43958.899718747452</v>
+      </c>
+      <c r="H103" s="2">
+        <v>43957.88585717669</v>
+      </c>
+      <c r="I103" s="2">
+        <v>43958.958333333343</v>
+      </c>
+      <c r="J103" t="s">
+        <v>45</v>
+      </c>
+      <c r="K103" s="2">
+        <v>25569.020833333328</v>
+      </c>
+      <c r="L103" s="2">
+        <v>25569</v>
+      </c>
+      <c r="N103">
+        <v>107</v>
+      </c>
+      <c r="O103" t="b">
+        <v>1</v>
+      </c>
+      <c r="P103">
+        <v>4</v>
+      </c>
+      <c r="Q103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>116</v>
+      </c>
+      <c r="B104" t="s">
+        <v>108</v>
+      </c>
+      <c r="D104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104" t="s">
+        <v>19</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" s="2">
+        <v>43958.590390328718</v>
+      </c>
+      <c r="H104" s="2">
+        <v>43958.986543378101</v>
+      </c>
+      <c r="I104" s="2">
+        <v>43958.958333333343</v>
+      </c>
+      <c r="J104" t="s">
+        <v>20</v>
+      </c>
+      <c r="K104" s="2">
+        <v>25569.020833333328</v>
+      </c>
+      <c r="L104" s="2">
+        <v>25569.009190853041</v>
+      </c>
+      <c r="N104">
+        <v>204</v>
+      </c>
+      <c r="O104" t="b">
+        <v>1</v>
+      </c>
+      <c r="P104">
+        <v>3</v>
+      </c>
+      <c r="Q104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>117</v>
+      </c>
+      <c r="B105" t="s">
+        <v>111</v>
+      </c>
+      <c r="D105" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105" t="s">
+        <v>22</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" s="2">
+        <v>43957.621798903878</v>
+      </c>
+      <c r="I105" s="2">
+        <v>43962.958333333336</v>
+      </c>
+      <c r="J105" t="s">
+        <v>45</v>
+      </c>
+      <c r="K105" s="2">
+        <v>25569.083333333328</v>
+      </c>
+      <c r="L105" s="2">
+        <v>25569</v>
+      </c>
+      <c r="N105">
+        <v>32</v>
+      </c>
+      <c r="O105" t="b">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>6</v>
+      </c>
+      <c r="Q105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>118</v>
+      </c>
+      <c r="B106" t="s">
+        <v>51</v>
+      </c>
+      <c r="D106" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106" t="s">
+        <v>19</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106" s="2">
+        <v>43959.88585717669</v>
+      </c>
+      <c r="H106" s="2">
+        <v>43960.547511361663</v>
+      </c>
+      <c r="I106" s="2">
+        <v>43960.958333333343</v>
+      </c>
+      <c r="J106" t="s">
+        <v>45</v>
+      </c>
+      <c r="K106" s="2">
+        <v>25569.020833333328</v>
+      </c>
+      <c r="L106" s="2">
+        <v>25569</v>
+      </c>
+      <c r="N106">
+        <v>206</v>
+      </c>
+      <c r="O106" t="b">
+        <v>1</v>
+      </c>
+      <c r="P106">
+        <v>4</v>
+      </c>
+      <c r="Q106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>119</v>
+      </c>
+      <c r="B107" t="s">
+        <v>112</v>
+      </c>
+      <c r="D107" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107" t="s">
+        <v>22</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107" s="2">
+        <v>43957.886139912313</v>
+      </c>
+      <c r="H107" s="2">
+        <v>43957.92393497008</v>
+      </c>
+      <c r="I107" s="2">
+        <v>43957.958333333343</v>
+      </c>
+      <c r="J107" t="s">
+        <v>20</v>
+      </c>
+      <c r="K107" s="2">
+        <v>25569.041666666672</v>
+      </c>
+      <c r="L107" s="2">
+        <v>25569.037420748318</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107" t="b">
+        <v>1</v>
+      </c>
+      <c r="P107">
+        <v>5</v>
+      </c>
+      <c r="Q107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>120</v>
+      </c>
+      <c r="B108" t="s">
+        <v>113</v>
+      </c>
+      <c r="D108" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108" t="s">
+        <v>22</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108" s="2">
+        <v>43957.886188934863</v>
+      </c>
+      <c r="H108" s="2">
+        <v>43957.941044645362</v>
+      </c>
+      <c r="I108" s="2">
+        <v>43957.958333333343</v>
+      </c>
+      <c r="J108" t="s">
+        <v>20</v>
+      </c>
+      <c r="K108" s="2">
+        <v>25569.041666666672</v>
+      </c>
+      <c r="L108" s="2">
+        <v>25569.01705725494</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108" t="b">
+        <v>1</v>
+      </c>
+      <c r="P108">
+        <v>5</v>
+      </c>
+      <c r="Q108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>121</v>
+      </c>
+      <c r="B109" t="s">
+        <v>114</v>
+      </c>
+      <c r="D109" t="s">
+        <v>18</v>
+      </c>
+      <c r="E109" t="s">
+        <v>22</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109" s="2">
+        <v>43958.61015358258</v>
+      </c>
+      <c r="I109" s="2">
+        <v>43962.958333333336</v>
+      </c>
+      <c r="J109" t="s">
+        <v>45</v>
+      </c>
+      <c r="K109" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L109" s="2">
+        <v>25569</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109" t="b">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>5</v>
+      </c>
+      <c r="Q109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>122</v>
+      </c>
+      <c r="B110" t="s">
+        <v>115</v>
+      </c>
+      <c r="D110" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" t="s">
+        <v>22</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110" s="2">
+        <v>43958.636490132631</v>
+      </c>
+      <c r="H110" s="2">
+        <v>43958.656086426032</v>
+      </c>
+      <c r="I110" s="2">
+        <v>43958.958333333343</v>
+      </c>
+      <c r="J110" t="s">
+        <v>20</v>
+      </c>
+      <c r="K110" s="2">
+        <v>25569.006944444449</v>
+      </c>
+      <c r="L110" s="2">
+        <v>25569.011211873771</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110" t="b">
+        <v>1</v>
+      </c>
+      <c r="P110">
+        <v>1</v>
+      </c>
+      <c r="Q110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>123</v>
+      </c>
+      <c r="B111" t="s">
+        <v>116</v>
+      </c>
+      <c r="D111" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111" s="2">
+        <v>43958.636545716457</v>
+      </c>
+      <c r="H111" s="2">
+        <v>43958.709181568243</v>
+      </c>
+      <c r="I111" s="2">
+        <v>43958.958333333343</v>
+      </c>
+      <c r="J111" t="s">
+        <v>20</v>
+      </c>
+      <c r="K111" s="2">
+        <v>25569.020833333328</v>
+      </c>
+      <c r="L111" s="2">
+        <v>25569</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111" t="b">
+        <v>1</v>
+      </c>
+      <c r="P111">
+        <v>6</v>
+      </c>
+      <c r="Q111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>124</v>
+      </c>
+      <c r="B112" t="s">
+        <v>108</v>
+      </c>
+      <c r="D112" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" t="s">
+        <v>19</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112" s="2">
+        <v>43959.986543378101</v>
+      </c>
+      <c r="H112" s="2">
+        <v>43960.638251960067</v>
+      </c>
+      <c r="I112" s="2">
+        <v>43959.958333333343</v>
+      </c>
+      <c r="J112" t="s">
+        <v>20</v>
+      </c>
+      <c r="K112" s="2">
+        <v>25569.020833333328</v>
+      </c>
+      <c r="L112" s="2">
+        <v>25569.021707440101</v>
+      </c>
+      <c r="N112">
+        <v>204</v>
+      </c>
+      <c r="O112" t="b">
+        <v>1</v>
+      </c>
+      <c r="P112">
+        <v>3</v>
+      </c>
+      <c r="Q112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>125</v>
+      </c>
+      <c r="B113" t="s">
+        <v>117</v>
+      </c>
+      <c r="D113" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113" t="s">
+        <v>22</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113" s="2">
+        <v>43959.396584015289</v>
+      </c>
+      <c r="H113" s="2">
+        <v>43959.55639381022</v>
+      </c>
+      <c r="I113" s="2">
+        <v>43959.958333333343</v>
+      </c>
+      <c r="J113" t="s">
+        <v>20</v>
+      </c>
+      <c r="K113" s="2">
+        <v>25569.041666666672</v>
+      </c>
+      <c r="L113" s="2">
+        <v>25569.091040496169</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113" t="b">
+        <v>1</v>
+      </c>
+      <c r="P113">
+        <v>1</v>
+      </c>
+      <c r="Q113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>126</v>
+      </c>
+      <c r="B114" t="s">
+        <v>51</v>
+      </c>
+      <c r="D114" t="s">
+        <v>18</v>
+      </c>
+      <c r="E114" t="s">
+        <v>19</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114" s="2">
+        <v>43962.547511361663</v>
+      </c>
+      <c r="I114" s="2">
+        <v>43962.958333333343</v>
+      </c>
+      <c r="J114" t="s">
+        <v>39</v>
+      </c>
+      <c r="K114" s="2">
+        <v>25569.020833333328</v>
+      </c>
+      <c r="L114" s="2">
+        <v>25569</v>
+      </c>
+      <c r="N114">
+        <v>206</v>
+      </c>
+      <c r="O114" t="b">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>4</v>
+      </c>
+      <c r="Q114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>127</v>
+      </c>
+      <c r="B115" t="s">
+        <v>118</v>
+      </c>
+      <c r="D115" t="s">
+        <v>18</v>
+      </c>
+      <c r="E115" t="s">
+        <v>22</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115" s="2">
+        <v>43960.584043646297</v>
+      </c>
+      <c r="I115" s="2">
+        <v>43962.958333333336</v>
+      </c>
+      <c r="J115" t="s">
+        <v>45</v>
+      </c>
+      <c r="K115" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L115" s="2">
+        <v>25569</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115" t="b">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>5</v>
+      </c>
+      <c r="Q115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>128</v>
+      </c>
+      <c r="B116" t="s">
+        <v>119</v>
+      </c>
+      <c r="D116" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" t="s">
+        <v>22</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116" s="2">
+        <v>43960.584571271473</v>
+      </c>
+      <c r="I116" s="2">
+        <v>43962.958333333336</v>
+      </c>
+      <c r="J116" t="s">
+        <v>39</v>
+      </c>
+      <c r="K116" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L116" s="2">
+        <v>25569</v>
+      </c>
+      <c r="N116">
+        <v>208</v>
+      </c>
+      <c r="O116" t="b">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>1</v>
+      </c>
+      <c r="Q116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>129</v>
+      </c>
+      <c r="B117" t="s">
+        <v>108</v>
+      </c>
+      <c r="D117" t="s">
+        <v>18</v>
+      </c>
+      <c r="E117" t="s">
+        <v>19</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117" s="2">
+        <v>43961.638251960067</v>
+      </c>
+      <c r="I117" s="2">
+        <v>43961.958333333343</v>
+      </c>
+      <c r="J117" t="s">
+        <v>39</v>
+      </c>
+      <c r="K117" s="2">
+        <v>25569.020833333328</v>
+      </c>
+      <c r="L117" s="2">
+        <v>25569</v>
+      </c>
+      <c r="N117">
+        <v>204</v>
+      </c>
+      <c r="O117" t="b">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>3</v>
+      </c>
+      <c r="Q117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>130</v>
+      </c>
+      <c r="B118" t="s">
+        <v>120</v>
+      </c>
+      <c r="D118" t="s">
+        <v>18</v>
+      </c>
+      <c r="E118" t="s">
+        <v>22</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118" s="2">
+        <v>43961.50924860435</v>
+      </c>
+      <c r="I118" s="2">
+        <v>43962.958333333336</v>
+      </c>
+      <c r="J118" t="s">
+        <v>39</v>
+      </c>
+      <c r="K118" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L118" s="2">
+        <v>25569</v>
+      </c>
+      <c r="N118">
+        <v>208</v>
+      </c>
+      <c r="O118" t="b">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>1</v>
+      </c>
+      <c r="Q118">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3943,13 +6280,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -3961,7 +6298,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -3972,13 +6309,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3990,7 +6327,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3998,16 +6335,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2">
         <v>43925.48184576389</v>
@@ -4016,7 +6353,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -4024,16 +6361,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2">
         <v>43926.487764074067</v>
@@ -4042,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -4050,16 +6387,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2">
         <v>43926.94972045139</v>
@@ -4068,7 +6405,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -4076,16 +6413,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G6" s="2">
         <v>43929.39677738426</v>
@@ -4094,7 +6431,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -4102,16 +6439,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G7" s="2">
         <v>43929.423342974544</v>
@@ -4120,59 +6457,59 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="2">
-        <v>43935.37073386574</v>
+        <v>43945.475091064807</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G9" s="2">
-        <v>43945.475091064807</v>
+        <v>43951.580392547861</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4182,11 +6519,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4198,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -4207,7 +6542,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -4225,7 +6560,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -4233,25 +6568,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>43947.62496590965</v>
+        <v>43947.62496591435</v>
       </c>
       <c r="J2" s="2">
         <v>58441.999305555553</v>
@@ -4268,22 +6603,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2">
-        <v>43947.696221321057</v>
+        <v>43947.696221319442</v>
       </c>
       <c r="J3" s="2">
         <v>43954.958333333343</v>
@@ -4292,6 +6627,140 @@
         <v>25569</v>
       </c>
       <c r="L3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2">
+        <v>43947.722541623058</v>
+      </c>
+      <c r="J4" s="2">
+        <v>43982.958333333343</v>
+      </c>
+      <c r="K4" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2">
+        <v>43948.390552302328</v>
+      </c>
+      <c r="J5" s="2">
+        <v>43982.958333333343</v>
+      </c>
+      <c r="K5" s="2">
+        <v>25570</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+      <c r="H6" s="2">
+        <v>43949.402409212729</v>
+      </c>
+      <c r="J6" s="2">
+        <v>44043.958333333343</v>
+      </c>
+      <c r="K6" s="2">
+        <v>25575.666666666672</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43955.477318527752</v>
+      </c>
+      <c r="J7" s="2">
+        <v>44182.958333333343</v>
+      </c>
+      <c r="K7" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4310,12 +6779,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
